--- a/Практическая работа 12.xlsx
+++ b/Практическая работа 12.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="9570" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
